--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2211289.468205551</v>
+        <v>-2213737.701284605</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>151.0108140474361</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>157.650097490483</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>94.62332623081497</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>205.1478855987996</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>6.474757726114304</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>341.2578399936063</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>68.2276977578159</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>109.7756561963049</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>376.9688122184073</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.0502568735976</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>106.0725670814544</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>50.43151777216858</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2205257453334</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>98.83451610078326</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292569</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99634965464209</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.98576519627173</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.42567912201456</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>49.00186811940988</v>
       </c>
     </row>
     <row r="20">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="H22" t="n">
-        <v>49.2824533413352</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800346</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I25" t="n">
-        <v>49.3772837912458</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U25" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X25" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,16 +2719,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124552</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,16 +2956,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797688</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124555</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>41.9570160514548</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797666</v>
       </c>
       <c r="F37" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433873</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572827</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124558</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881778</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206843</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734101331</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633445</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996196</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797641</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433849</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572805</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124545</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052352</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179982</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704444</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.609516733502</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1421.217123115521</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>571.4512031447746</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>213.1855045380241</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1421.217123115521</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265798</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>285.8510101265798</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265798</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265798</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>1181.549686895097</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>812.5871699546856</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>812.5871699546856</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>812.5871699546856</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>805.6416692054821</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>387.677861103669</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>60.48314113967183</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1317.778685247039</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.778685247039</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.778685247039</v>
+        <v>1568.149526959219</v>
       </c>
     </row>
     <row r="6">
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>291.7960311703076</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>122.8598482424007</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>122.8598482424007</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>122.8598482424007</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>122.8598482424007</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>439.6809052858516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>439.6809052858516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>439.6809052858516</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>439.6809052858516</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1933.544000781331</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>1564.581483840919</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D8" t="n">
-        <v>1206.315785234169</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E8" t="n">
-        <v>1206.315785234169</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>795.3298804445612</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.820796875036</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>850.2139837551615</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.649739272053</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330835</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.39320666029</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161915</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142067</v>
@@ -5148,19 +5148,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
         <v>1138.808109517387</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.0634049978502</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="C13" t="n">
-        <v>230.1272220699433</v>
+        <v>490.9164446247779</v>
       </c>
       <c r="D13" t="n">
-        <v>230.1272220699433</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E13" t="n">
-        <v>230.1272220699433</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5224,25 +5224,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1766.680164315986</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1544.913548885512</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1255.810682011156</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1001.126193805269</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>711.709023768308</v>
       </c>
       <c r="X13" t="n">
-        <v>619.8559841413803</v>
+        <v>711.709023768308</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.0634049978502</v>
+        <v>490.9164446247779</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>722.4071781934679</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846823</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518747</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
@@ -5361,28 +5361,28 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>818.429182877517</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C16" t="n">
-        <v>649.4929999496101</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D16" t="n">
-        <v>499.3763605372743</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E16" t="n">
-        <v>499.3763605372743</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839441</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1897.77198610847</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1706.086101935296</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1706.086101935296</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1416.983235060939</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851287</v>
+        <v>1162.298746855053</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.870226851287</v>
+        <v>872.881576818092</v>
       </c>
       <c r="X16" t="n">
-        <v>1220.870226851287</v>
+        <v>644.8920259200746</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000.077647707757</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="17">
@@ -5501,40 +5501,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644074</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870721</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5610,16 +5610,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390.3640755286979</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839441</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>681.2836032803235</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>460.4910241367934</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,22 +5750,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443162</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679677</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,22 +5859,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>629.893403484314</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C22" t="n">
-        <v>460.9572205564072</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="D22" t="n">
-        <v>460.9572205564072</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="E22" t="n">
-        <v>313.044126974014</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="F22" t="n">
-        <v>313.044126974014</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="G22" t="n">
-        <v>145.341290348733</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839441</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1100.959038351514</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>811.5418683145538</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>811.5418683145538</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>811.5418683145538</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5993,13 +5993,13 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1465.885462454823</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>1999.417367126748</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468568</v>
@@ -6066,19 +6066,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,22 +6096,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>788.5151678215057</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C25" t="n">
         <v>667.028617841672</v>
       </c>
       <c r="D25" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E25" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F25" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G25" t="n">
-        <v>244.204632516045</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H25" t="n">
-        <v>145.437078681976</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6184,13 +6184,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W25" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X25" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y25" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427198</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1395.429061104433</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M26" t="n">
-        <v>2373.979363934262</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.758180993044</v>
+        <v>2637.914081542189</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.476988454339</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215051</v>
+        <v>788.515167821506</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416724</v>
       </c>
       <c r="D28" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932521</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>187.1890521477363</v>
+        <v>187.1890521477365</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490194</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M28" t="n">
         <v>1191.409234901878</v>
@@ -6403,13 +6403,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q28" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R28" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S28" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T28" t="n">
         <v>1967.452490122057</v>
@@ -6418,16 +6418,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V28" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X28" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L29" t="n">
-        <v>1153.952538678958</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M29" t="n">
-        <v>1687.484443350883</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.23671557753</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906984</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C31" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E31" t="n">
         <v>463.8981507430896</v>
@@ -6616,16 +6616,16 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477365</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L31" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M31" t="n">
         <v>1191.409234901878</v>
@@ -6710,10 +6710,10 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3008.107474639232</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.515167821505</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D34" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430892</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932522</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G34" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6880,28 +6880,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U34" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036713</v>
+        <v>922.7139997036719</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551636</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001584</v>
@@ -6932,55 +6932,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176197</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366029</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195858</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2762.02852125464</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3641.993171584095</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4355.348259031041</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086362</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789529</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102194</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.42625032451</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297019</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.410164773122</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.051722419722</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416713</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D37" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430891</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F37" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160443</v>
+        <v>244.2046325160448</v>
       </c>
       <c r="H37" t="n">
         <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7126,19 +7126,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7157,67 +7157,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972666</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
@@ -7248,16 +7248,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390112</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7269,22 +7269,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
         <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7327,13 +7327,13 @@
         <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7366,7 +7366,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
         <v>1276.596863849073</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176197</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366029</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195858</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353396</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232733</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390112</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215049</v>
       </c>
       <c r="C43" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416712</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430892</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>187.1890521477366</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7591,28 +7591,28 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829558</v>
+        <v>2286.005723829557</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604456</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937959</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036712</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277722</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1070.832524924171</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.866738172579</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2055.398642844501</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903282</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232736</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679681</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188668</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,64 +7701,64 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939019</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193654</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320297</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454344</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008798</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426851</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215042</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416708</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774085</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430889</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490189</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499214</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M46" t="n">
-        <v>1191.409234901877</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N46" t="n">
-        <v>1579.322996860147</v>
+        <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.157981032967</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
-        <v>2204.270866719033</v>
+        <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123954</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R46" t="n">
-        <v>2286.005723829555</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604455</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T46" t="n">
-        <v>1967.452490122054</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195771</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V46" t="n">
-        <v>1518.564400937958</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849071</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899127</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036704</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>317.5146261106137</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>288.0478149561022</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8708,10 +8708,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>105.1996354507086</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>258.6211785616922</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,16 +9407,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>386.0843734984065</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9641,16 +9641,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>76.45227440777256</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>5.284192235660271</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476826</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L29" t="n">
-        <v>85.5139255891749</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8012738805276</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>50.8492721231747</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.024558464266192e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>189.799800789263</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>219.3344627260158</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>89.5245633896194</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>288.0478149561148</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289.1373931950048</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>214.2620777235715</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>9.017501836297289</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,28 +22705,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.99214678739739</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,16 +22753,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6.99765335121927</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819389</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>12.20052227759788</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23434,7 +23434,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>90.93450923065863</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>56.42469836828916</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>30.9463874737756</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.4063010599227</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>169.5827852326849</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>91.26811680410417</v>
       </c>
       <c r="H22" t="n">
-        <v>95.47256157298558</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>34362.7578359307</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>39708.17868869829</v>
+        <v>39708.1786886983</v>
       </c>
       <c r="F2" t="n">
         <v>39708.1786886983</v>
@@ -26332,28 +26332,28 @@
         <v>39708.1786886983</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.0884932141</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="J2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.08849321416</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.08849321416</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.08849321416</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918993</v>
@@ -26433,16 +26433,16 @@
         <v>18148.49231918995</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
         <v>33605.65329740898</v>
       </c>
       <c r="J4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="K4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="L4" t="n">
         <v>33605.65329740899</v>
@@ -26451,13 +26451,13 @@
         <v>33605.65329740898</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740888</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740891</v>
+        <v>33605.653297409</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740917</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-745451.8923638259</v>
+        <v>-745786.35889669</v>
       </c>
       <c r="C6" t="n">
         <v>-225155.6764273233</v>
@@ -26528,40 +26528,40 @@
         <v>-225155.6764273233</v>
       </c>
       <c r="E6" t="n">
-        <v>-802201.2458776119</v>
+        <v>-802268.4413678377</v>
       </c>
       <c r="F6" t="n">
-        <v>-74823.83188420528</v>
+        <v>-74891.02737443107</v>
       </c>
       <c r="G6" t="n">
-        <v>-74823.83188420528</v>
+        <v>-74891.02737443107</v>
       </c>
       <c r="H6" t="n">
-        <v>-74823.83188420525</v>
+        <v>-74891.02737443105</v>
       </c>
       <c r="I6" t="n">
-        <v>-130466.345113171</v>
+        <v>-130466.3451131709</v>
       </c>
       <c r="J6" t="n">
         <v>-269309.4550108899</v>
       </c>
       <c r="K6" t="n">
-        <v>-92886.2358182969</v>
+        <v>-92886.23581829692</v>
       </c>
       <c r="L6" t="n">
-        <v>-92886.23581829696</v>
+        <v>-92886.23581829693</v>
       </c>
       <c r="M6" t="n">
-        <v>-222528.5506572417</v>
+        <v>-222528.5506572416</v>
       </c>
       <c r="N6" t="n">
-        <v>-130466.3451131709</v>
+        <v>-130466.345113171</v>
       </c>
       <c r="O6" t="n">
-        <v>-92886.23581829685</v>
+        <v>-92886.23581829693</v>
       </c>
       <c r="P6" t="n">
-        <v>-92886.23581829562</v>
+        <v>-92886.23581829693</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26768,16 +26768,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.415845301584341e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.5229476555768e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.59644846847573</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>215.2627707454815</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>145.456558518747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>7.983128723806715</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>99.08210450123501</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>115.2594492617794</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>4.961557853854515</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>3.733913147197427</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>39.34848094147688</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698092</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28102,13 +28102,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859251</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859276</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -33026,13 +33026,13 @@
         <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353143</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138798</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837927</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33655,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33807,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34129,40 +34129,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34281,43 +34281,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974796</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003798</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678168</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026511</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970239</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098814</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>856.4357419408404</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690137</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
@@ -35428,10 +35428,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>442.3909220061091</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35659,7 +35659,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35668,7 +35668,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>797.542294391919</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
@@ -36127,16 +36127,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>938.386208911318</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
@@ -36361,16 +36361,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>532.0423888001047</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265655</v>
       </c>
       <c r="L26" t="n">
-        <v>460.8743066279927</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230595</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129117</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509648</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193721</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636244</v>
@@ -36674,13 +36674,13 @@
         <v>94.62350453597719</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609554</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004594</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629122</v>
@@ -36832,16 +36832,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L29" t="n">
-        <v>541.1040399815071</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
@@ -36850,7 +36850,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37078,13 +37078,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>756.8542747687467</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509647</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>301.6435769268943</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>742.1016362021745</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509647</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597658</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37701,7 +37701,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>771.6362981389273</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>597.5775642778385</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597658</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629122</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407856</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>625.239101511514</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923307</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302252</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129099</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.853182150963</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908531</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636232</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152067</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453598444</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316587</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887903</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.608516012076</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861323</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.328266841232</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637027</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
